--- a/functions.xlsx
+++ b/functions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiarf\Desktop\cpp\bootstrapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiarf\Documents\GitHub\bootstrapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F1A365-6651-4D07-8B8E-16A2B41A3074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB7FCE-73FB-4BAF-ADB4-603F2DDE652E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{D7DA6D72-5A15-4013-87E0-D24AED0AEF2B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{D7DA6D72-5A15-4013-87E0-D24AED0AEF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,6 +428,50 @@
         <a:xfrm>
           <a:off x="0" y="12763500"/>
           <a:ext cx="10364646" cy="5353797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>486601</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDEBBBA-4D41-67F2-4C22-D96CB615F3EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420350" y="12725400"/>
+          <a:ext cx="5915851" cy="1371791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -821,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AF91E-0D3B-411F-A339-01B8AFAB9B6E}">
   <dimension ref="A33"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -842,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BF369-BDB9-4727-9C6A-D1AB0BD2A96D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="X79" sqref="X79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/functions.xlsx
+++ b/functions.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiarf\Documents\GitHub\bootstrapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB7FCE-73FB-4BAF-ADB4-603F2DDE652E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A51C11-F0FC-47D3-B897-2DB2944FF52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{D7DA6D72-5A15-4013-87E0-D24AED0AEF2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{D7DA6D72-5A15-4013-87E0-D24AED0AEF2B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="FixingDays" sheetId="3" r:id="rId3"/>
-    <sheet name="FixingDays21" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="times" sheetId="1" r:id="rId1"/>
+    <sheet name="solver" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="FixingDays" sheetId="3" r:id="rId4"/>
+    <sheet name="FixingDays21" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>d1</t>
   </si>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>FixingDate is first set to the reference date, then it is used to find the valueDate</t>
+  </si>
+  <si>
+    <t>yBegin_[i] is -1</t>
+  </si>
+  <si>
+    <t>x is 0.0109589041…</t>
+  </si>
+  <si>
+    <t>xBegin_[i] is 0</t>
+  </si>
+  <si>
+    <t>s_[i] is 0</t>
+  </si>
+  <si>
+    <t>i=0</t>
+  </si>
+  <si>
+    <t>Thus the result is</t>
+  </si>
+  <si>
+    <t>second df</t>
   </si>
 </sst>
 </file>
@@ -122,38 +143,610 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>572516</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F0C3AD-E7A8-FC32-0F6C-55744897B8DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4848225"/>
+          <a:ext cx="7278116" cy="2086266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10207</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>105135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A89E2AE-62D3-14FF-100B-18F91FC92C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4887007" cy="2581635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>210430</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>162081</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6059B444-7105-198F-0F2D-1F63ED861CB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="762000"/>
-          <a:ext cx="6306430" cy="1114581"/>
+      <xdr:colOff>467626</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BCCBE5-6FDE-2CA6-F45A-526E1365897E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="2533650"/>
+          <a:ext cx="6458851" cy="2305372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1021</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434C4B14-109B-AA25-D9E5-08C3BF542C1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6858000"/>
+          <a:ext cx="7316221" cy="2295845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>77217</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A6D164-A533-075E-137C-AE6ED8DC595C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="6905625"/>
+          <a:ext cx="7287642" cy="504895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>248704</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DC2B7D-6DE0-FCC5-1798-DDBA468CE04E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="6486525"/>
+          <a:ext cx="7554379" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10632</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E911EA5-6285-8D52-706D-93B6032CF78A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9363075"/>
+          <a:ext cx="7935432" cy="876422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>334357</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7345363-34B6-3484-872E-32BC56F35326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10287000"/>
+          <a:ext cx="7039957" cy="828791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>77264</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B497CD23-AD02-0C49-76AA-416DCD3DD4B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="10325100"/>
+          <a:ext cx="7621064" cy="609685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>286853</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>181128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45B71BC-9988-D29B-F494-A5E8CA3CDC50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="10896600"/>
+          <a:ext cx="7906853" cy="1095528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563160</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>47844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC0DAA9-E6F1-3F01-7044-753A175058CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12954000"/>
+          <a:ext cx="8487960" cy="1571844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>344394</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>104871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C239B031-2B38-1F51-BB97-024B23A09C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="12944475"/>
+          <a:ext cx="10707594" cy="685896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>258356</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3876D6C0-4509-80C2-426A-2ED35B8EF39F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14963775" y="9467850"/>
+          <a:ext cx="8459381" cy="3181794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>430018</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCCF990-CA6F-4BD1-E54E-AB75D251471D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15440025" y="11696700"/>
+          <a:ext cx="9983593" cy="933580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -171,6 +764,55 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>210430</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>162081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6059B444-7105-198F-0F2D-1F63ED861CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="762000"/>
+          <a:ext cx="6306430" cy="1114581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -302,7 +944,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -783,7 +1425,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,13 +1442,21 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>44929</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>44930</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44930</v>
+      </c>
+      <c r="C3" s="1">
         <v>44929</v>
       </c>
     </row>
@@ -826,6 +1476,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E38CA1-BBFC-4859-A4B2-B5A2F673F30B}">
+  <dimension ref="A50:Z66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>-1+(0.0109589041-0)*0</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD78AF61-420F-400B-9D02-C5DDBB30AD29}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -861,7 +1568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AF91E-0D3B-411F-A339-01B8AFAB9B6E}">
   <dimension ref="A33"/>
   <sheetViews>
@@ -882,11 +1589,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BF369-BDB9-4727-9C6A-D1AB0BD2A96D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="X79" sqref="X79"/>
     </sheetView>
   </sheetViews>
@@ -895,16 +1602,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E38CA1-BBFC-4859-A4B2-B5A2F673F30B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/functions.xlsx
+++ b/functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiarf\Documents\GitHub\bootstrapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A51C11-F0FC-47D3-B897-2DB2944FF52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255E586C-6489-419E-B096-0003BC539D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{D7DA6D72-5A15-4013-87E0-D24AED0AEF2B}"/>
   </bookViews>
@@ -1479,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E38CA1-BBFC-4859-A4B2-B5A2F673F30B}">
   <dimension ref="A50:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,10 +1504,22 @@
       <c r="A62" t="s">
         <v>8</v>
       </c>
+      <c r="I62">
+        <f>4/365</f>
+        <v>1.0958904109589041E-2</v>
+      </c>
+      <c r="J62">
+        <f>5/365</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
+      </c>
+      <c r="I63">
+        <f>94/365</f>
+        <v>0.25753424657534246</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">

--- a/functions.xlsx
+++ b/functions.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiarf\Documents\GitHub\bootstrapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255E586C-6489-419E-B096-0003BC539D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8BFAF1-369A-4221-94A1-8300FA0CB9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{D7DA6D72-5A15-4013-87E0-D24AED0AEF2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D7DA6D72-5A15-4013-87E0-D24AED0AEF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="times" sheetId="1" r:id="rId1"/>
     <sheet name="solver" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="FixingDays" sheetId="3" r:id="rId4"/>
-    <sheet name="FixingDays21" sheetId="5" r:id="rId5"/>
+    <sheet name="LinearInterpolation.hpp" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="FixingDays" sheetId="3" r:id="rId5"/>
+    <sheet name="FixingDays21" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>d1</t>
   </si>
@@ -82,6 +83,30 @@
   </si>
   <si>
     <t>second df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xBegin </t>
+  </si>
+  <si>
+    <t>Contains all the pillars of the curve</t>
+  </si>
+  <si>
+    <t>Contains only the end of xBegin</t>
+  </si>
+  <si>
+    <t>XEnd</t>
+  </si>
+  <si>
+    <t>yBegin</t>
+  </si>
+  <si>
+    <t>Contains all the values of the pillars, i.e. bootstrapped values</t>
+  </si>
+  <si>
+    <t>Interesting enough, it looks like like xBegin and yBegin are initialised with the size of the instruments</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
 </sst>
 </file>
@@ -755,6 +780,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352723</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>171891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714481A6-04FD-92F7-894A-0FAD23B5BBA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="14916150"/>
+          <a:ext cx="2133898" cy="3162741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -762,40 +831,84 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504961</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2821E364-6BCE-CCCB-4142-7D1AB8BE63D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="0"/>
+          <a:ext cx="971686" cy="1162212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>210430</xdr:colOff>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390634</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>162081</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6059B444-7105-198F-0F2D-1F63ED861CB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="762000"/>
-          <a:ext cx="6306430" cy="1114581"/>
+      <xdr:rowOff>95314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21551B25-15A3-5FF1-F1E1-09C27FDA756F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296026" y="1352550"/>
+          <a:ext cx="800208" cy="457264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -813,6 +926,55 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>210430</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>162081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6059B444-7105-198F-0F2D-1F63ED861CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="762000"/>
+          <a:ext cx="6306430" cy="1114581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -944,7 +1106,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1479,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E38CA1-BBFC-4859-A4B2-B5A2F673F30B}">
   <dimension ref="A50:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="S52" sqref="S52"/>
+    <sheetView topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,6 +1707,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A4595-A806-403B-96F7-B5AA7B799DF5}">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD78AF61-420F-400B-9D02-C5DDBB30AD29}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1580,7 +1798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AF91E-0D3B-411F-A339-01B8AFAB9B6E}">
   <dimension ref="A33"/>
   <sheetViews>
@@ -1601,7 +1819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BF369-BDB9-4727-9C6A-D1AB0BD2A96D}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/functions.xlsx
+++ b/functions.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiarf\Documents\GitHub\bootstrapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8BFAF1-369A-4221-94A1-8300FA0CB9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1B4FBC-1CC0-4351-82CC-BC38EFA895D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D7DA6D72-5A15-4013-87E0-D24AED0AEF2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{D7DA6D72-5A15-4013-87E0-D24AED0AEF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="times" sheetId="1" r:id="rId1"/>
     <sheet name="solver" sheetId="4" r:id="rId2"/>
     <sheet name="LinearInterpolation.hpp" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="FixingDays" sheetId="3" r:id="rId5"/>
-    <sheet name="FixingDays21" sheetId="5" r:id="rId6"/>
+    <sheet name="forecastfixing test" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="FixingDays" sheetId="3" r:id="rId6"/>
+    <sheet name="FixingDays21" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>d1</t>
   </si>
@@ -107,13 +108,39 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>exp(-r*t)</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>ForecastFixing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,14 +166,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1710,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A4595-A806-403B-96F7-B5AA7B799DF5}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,6 +1793,79 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9121186-4CCD-40A7-982B-7FC227AF05BA}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.01102</v>
+      </c>
+      <c r="D2">
+        <v>1.0958900000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.01379</v>
+      </c>
+      <c r="D3">
+        <v>1.36986E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2">
+        <f>1/360</f>
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD78AF61-420F-400B-9D02-C5DDBB30AD29}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1798,7 +1901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AF91E-0D3B-411F-A339-01B8AFAB9B6E}">
   <dimension ref="A33"/>
   <sheetViews>
@@ -1819,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BF369-BDB9-4727-9C6A-D1AB0BD2A96D}">
   <dimension ref="A1"/>
   <sheetViews>
